--- a/www/IndicatorsPerCountry/Botswana_GDPperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_GDPperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Botswana_GDPperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
+++ b/www/IndicatorsPerCountry/Botswana_GDPperCapita_TerritorialRef_1966_2012_CCode_72.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,205 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>349</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>377</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>392</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>415</t>
-  </si>
-  <si>
-    <t>422</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>437</t>
-  </si>
-  <si>
-    <t>473</t>
+    <t>489</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>504</t>
   </si>
   <si>
     <t>513</t>
   </si>
   <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>747</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1223</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>1358</t>
-  </si>
-  <si>
-    <t>1537</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>1765</t>
-  </si>
-  <si>
-    <t>1858</t>
-  </si>
-  <si>
-    <t>1921</t>
-  </si>
-  <si>
-    <t>2144</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2387</t>
-  </si>
-  <si>
-    <t>2485</t>
-  </si>
-  <si>
-    <t>2619</t>
-  </si>
-  <si>
-    <t>2937</t>
-  </si>
-  <si>
-    <t>3216</t>
-  </si>
-  <si>
-    <t>3303.78013177</t>
-  </si>
-  <si>
-    <t>3360.09435939</t>
-  </si>
-  <si>
-    <t>3353.77539521</t>
-  </si>
-  <si>
-    <t>3310.97790445</t>
-  </si>
-  <si>
-    <t>3320.80620051</t>
-  </si>
-  <si>
-    <t>3366.96690762</t>
-  </si>
-  <si>
-    <t>3457.79374481</t>
-  </si>
-  <si>
-    <t>3589.45489672</t>
-  </si>
-  <si>
-    <t>3704.4726114</t>
-  </si>
-  <si>
-    <t>3844.92949542</t>
-  </si>
-  <si>
-    <t>4084.11125929</t>
-  </si>
-  <si>
-    <t>4210.59632709</t>
-  </si>
-  <si>
-    <t>4338.62088437</t>
-  </si>
-  <si>
-    <t>4429.14604309</t>
-  </si>
-  <si>
-    <t>4488.80205683</t>
-  </si>
-  <si>
-    <t>4480.69578222</t>
-  </si>
-  <si>
-    <t>4619.41658341</t>
-  </si>
-  <si>
-    <t>4728.17810185</t>
-  </si>
-  <si>
-    <t>4768.83765153</t>
+    <t>521</t>
+  </si>
+  <si>
+    <t>529</t>
+  </si>
+  <si>
+    <t>537</t>
+  </si>
+  <si>
+    <t>544</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>559</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>582</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>663</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>781</t>
+  </si>
+  <si>
+    <t>843</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>1656</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1889</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2184</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>2528</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>2848</t>
+  </si>
+  <si>
+    <t>3124</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>3601</t>
+  </si>
+  <si>
+    <t>3920</t>
+  </si>
+  <si>
+    <t>5066</t>
+  </si>
+  <si>
+    <t>5267</t>
+  </si>
+  <si>
+    <t>5616.01123018046</t>
+  </si>
+  <si>
+    <t>5733.63002125501</t>
+  </si>
+  <si>
+    <t>5787.11450056963</t>
+  </si>
+  <si>
+    <t>5946.42713209785</t>
+  </si>
+  <si>
+    <t>6318.47642374857</t>
+  </si>
+  <si>
+    <t>6647.7675526706</t>
+  </si>
+  <si>
+    <t>7152.14743365942</t>
+  </si>
+  <si>
+    <t>7185.27225389974</t>
+  </si>
+  <si>
+    <t>7876.13851780229</t>
+  </si>
+  <si>
+    <t>8044.14204336772</t>
+  </si>
+  <si>
+    <t>8082.82383350878</t>
+  </si>
+  <si>
+    <t>8604.06700130626</t>
+  </si>
+  <si>
+    <t>9042.51973342875</t>
+  </si>
+  <si>
+    <t>9329.50921397854</t>
+  </si>
+  <si>
+    <t>9798.08706427939</t>
+  </si>
+  <si>
+    <t>10665.6795265079</t>
+  </si>
+  <si>
+    <t>11602.0682465784</t>
+  </si>
+  <si>
+    <t>12385.1497252572</t>
+  </si>
+  <si>
+    <t>11494.7565430293</t>
+  </si>
+  <si>
+    <t>12544.7273633297</t>
+  </si>
+  <si>
+    <t>13376</t>
+  </si>
+  <si>
+    <t>13743</t>
+  </si>
+  <si>
+    <t>14853</t>
+  </si>
+  <si>
+    <t>15082</t>
+  </si>
+  <si>
+    <t>14805</t>
+  </si>
+  <si>
+    <t>15198</t>
   </si>
   <si>
     <t>Description</t>
@@ -1317,6 +1341,142 @@
         <v>65</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1332,50 +1492,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
